--- a/Thermography_Studies.xlsx
+++ b/Thermography_Studies.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="460" windowWidth="22900" windowHeight="19900" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Thermography_Studies.csv" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="75">
   <si>
     <t>Authors</t>
   </si>
@@ -44,102 +44,33 @@
     <t>Study Design</t>
   </si>
   <si>
-    <t xml:space="preserve">Inclusion Criteria </t>
-  </si>
-  <si>
     <t>Mean Age</t>
   </si>
   <si>
-    <t xml:space="preserve">Sensitivity </t>
-  </si>
-  <si>
     <t>Specificity</t>
   </si>
   <si>
     <t>Year</t>
   </si>
   <si>
-    <t xml:space="preserve">Arora et al. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Button et al. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyserlingk et al. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kontos et al. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parisky et al. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tang et al. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wang et al. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wishart et al. </t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
-    <t xml:space="preserve">Prospective cohort </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Retrospective case–control </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NR Cohort </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scheduled for biopsy </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Confirmed diagnosis </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Breast symptoms </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NR </t>
-  </si>
-  <si>
     <t>Kolaric ́ et al.</t>
   </si>
   <si>
-    <t xml:space="preserve">Francis and Sasikala </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EtehadTavakol et al. </t>
-  </si>
-  <si>
-    <t>Zore et al.</t>
-  </si>
-  <si>
     <t>Nicandro et al.</t>
   </si>
   <si>
     <t>Sella et al.</t>
   </si>
   <si>
-    <t xml:space="preserve">Acharya et al. </t>
-  </si>
-  <si>
     <t>Boquete et al.</t>
   </si>
   <si>
     <t>Mookiah et al.</t>
   </si>
   <si>
-    <t xml:space="preserve">Grubisic et al. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wiecek et al. </t>
-  </si>
-  <si>
     <t>Schaefer et al.</t>
   </si>
   <si>
@@ -149,33 +80,9 @@
     <t>Tan et al.</t>
   </si>
   <si>
-    <t>Qi et al.</t>
-  </si>
-  <si>
-    <t>Ng and Kee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yang et al. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jakubowska et al. </t>
-  </si>
-  <si>
     <t>Ng et al.</t>
   </si>
   <si>
-    <t xml:space="preserve">Frize et al. </t>
-  </si>
-  <si>
-    <t>Kuruganti and Qi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thompson et al. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Folberth and Heim </t>
-  </si>
-  <si>
     <t>Accuracy</t>
   </si>
   <si>
@@ -185,36 +92,15 @@
     <t>PE</t>
   </si>
   <si>
-    <t xml:space="preserve">2b </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3b </t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
     <t>4b</t>
   </si>
   <si>
-    <t xml:space="preserve">4b </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2a </t>
-  </si>
-  <si>
     <t>2b</t>
   </si>
   <si>
-    <t>2a</t>
-  </si>
-  <si>
     <t>Gros et al.</t>
   </si>
   <si>
-    <t>Haberman et al.</t>
-  </si>
-  <si>
     <t>Williams et al.</t>
   </si>
   <si>
@@ -249,13 +135,130 @@
   </si>
   <si>
     <t>Madsen et al.</t>
+  </si>
+  <si>
+    <t>Lilienfeld et al.</t>
+  </si>
+  <si>
+    <t>Keyserlin et al.</t>
+  </si>
+  <si>
+    <t>Inclusion Criteria</t>
+  </si>
+  <si>
+    <t>Sensitivity</t>
+  </si>
+  <si>
+    <t>Prospective cohort</t>
+  </si>
+  <si>
+    <t>Scheduled for biopsy</t>
+  </si>
+  <si>
+    <t>Button et al.</t>
+  </si>
+  <si>
+    <t>NR</t>
+  </si>
+  <si>
+    <t>Keyserlingk et al.</t>
+  </si>
+  <si>
+    <t>Retrospective case–control</t>
+  </si>
+  <si>
+    <t>Confirmed diagnosis</t>
+  </si>
+  <si>
+    <t>Kontos et al.</t>
+  </si>
+  <si>
+    <t>Breast symptoms</t>
+  </si>
+  <si>
+    <t>Parisky et al.</t>
+  </si>
+  <si>
+    <t>Tang et al.</t>
+  </si>
+  <si>
+    <t>NR Cohort</t>
+  </si>
+  <si>
+    <t>Wang et al.</t>
+  </si>
+  <si>
+    <t>Wishart et al.</t>
+  </si>
+  <si>
+    <t>3b</t>
+  </si>
+  <si>
+    <t>Acharya et al.</t>
+  </si>
+  <si>
+    <t>Haberman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feig, et al. </t>
+  </si>
+  <si>
+    <t>Jones</t>
+  </si>
+  <si>
+    <t>Mariel et al.</t>
+  </si>
+  <si>
+    <t>Nyirjesy et al.</t>
+  </si>
+  <si>
+    <t>Bothmann et al.</t>
+  </si>
+  <si>
+    <t>Useki</t>
+  </si>
+  <si>
+    <t>Borchartt et al.</t>
+  </si>
+  <si>
+    <t>Umadevi et al.</t>
+  </si>
+  <si>
+    <t>Zadeh et al.</t>
+  </si>
+  <si>
+    <t>Krawczyk et al.</t>
+  </si>
+  <si>
+    <t>Arajo et al.</t>
+  </si>
+  <si>
+    <t>Prasad et al.</t>
+  </si>
+  <si>
+    <t>Omranipour et al.</t>
+  </si>
+  <si>
+    <t>Krithika et al.</t>
+  </si>
+  <si>
+    <t>Prabha et al.</t>
+  </si>
+  <si>
+    <t>Kazerouni et al.</t>
+  </si>
+  <si>
+    <t>Rassiwala et al.</t>
+  </si>
+  <si>
+    <t>Francis et al.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -270,19 +273,10 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Gulliver"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="AdvPTimes"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times"/>
-      <family val="1"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -305,13 +299,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -589,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O56"/>
+  <dimension ref="A1:O64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M45" sqref="M45"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G76" sqref="G76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -614,36 +609,37 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>50</v>
+      <c r="M1" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1">
@@ -653,10 +649,10 @@
         <v>94</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="G2" s="1">
         <v>51</v>
@@ -667,17 +663,18 @@
       <c r="I2" s="1">
         <v>90</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="1">
         <v>2008</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1">
@@ -687,13 +684,13 @@
         <v>29</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="H3" s="1">
         <v>57</v>
@@ -701,7 +698,7 @@
       <c r="I3" s="1">
         <v>75</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="1">
         <v>2004</v>
       </c>
       <c r="K3" s="1"/>
@@ -712,7 +709,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1">
@@ -722,10 +719,10 @@
         <v>200</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="G4" s="1">
         <v>53</v>
@@ -736,17 +733,18 @@
       <c r="I4" s="1">
         <v>83</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="1">
         <v>1998</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1">
@@ -756,10 +754,10 @@
         <v>126</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="G5" s="1">
         <v>48</v>
@@ -770,17 +768,18 @@
       <c r="I5" s="1">
         <v>25</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="1">
         <v>2011</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1">
@@ -790,13 +789,13 @@
         <v>875</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="H6" s="1">
         <v>14</v>
@@ -804,17 +803,18 @@
       <c r="I6" s="1">
         <v>96</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="1">
         <v>2003</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1">
@@ -824,13 +824,13 @@
         <v>117</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="H7" s="1">
         <v>44</v>
@@ -838,17 +838,18 @@
       <c r="I7" s="1">
         <v>94</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="1">
         <v>2008</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1">
@@ -858,10 +859,10 @@
         <v>298</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="G8" s="1">
         <v>51</v>
@@ -872,17 +873,18 @@
       <c r="I8" s="1">
         <v>79</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="1">
         <v>2010</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1">
@@ -892,10 +894,10 @@
         <v>106</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="G9" s="1">
         <v>57</v>
@@ -906,75 +908,82 @@
       <c r="I9" s="1">
         <v>71</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="1">
         <v>2010</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1">
         <v>26</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="2">
+      <c r="H10" s="1">
         <v>79</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="1">
         <v>100</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="1">
         <v>2013</v>
       </c>
       <c r="K10" s="1"/>
-      <c r="L10" s="2">
+      <c r="L10" s="1">
         <v>92</v>
       </c>
-      <c r="M10" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="N10" s="2">
+      <c r="M10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N10" s="1">
         <v>2</v>
       </c>
+      <c r="O10" s="1"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>27</v>
+      <c r="A11" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="C11" s="1">
+        <v>22</v>
+      </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="2">
+      <c r="H11" s="1">
         <v>85.71</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="1">
         <v>88.1</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="1">
         <v>2013</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="2" t="s">
-        <v>53</v>
+      <c r="M11" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="N11" s="1">
         <v>3</v>
       </c>
+      <c r="O11" s="1"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>28</v>
+      <c r="A12" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -982,75 +991,94 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="2">
+      <c r="H12" s="1">
+        <v>37</v>
+      </c>
+      <c r="I12" s="1">
+        <v>82</v>
+      </c>
+      <c r="J12" s="1">
         <v>2013</v>
       </c>
       <c r="K12" s="1"/>
-      <c r="L12" s="2">
-        <v>95</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>53</v>
+      <c r="L12" s="1">
+        <v>71.88</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="N12" s="1">
         <v>3</v>
       </c>
+      <c r="O12" s="1"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>28</v>
+      <c r="A13" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="C13" s="1">
+        <v>434</v>
+      </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="2">
+      <c r="H13" s="1">
+        <v>72.5</v>
+      </c>
+      <c r="I13" s="1">
+        <v>90.9</v>
+      </c>
+      <c r="J13" s="1">
         <v>2013</v>
       </c>
       <c r="K13" s="1"/>
-      <c r="L13" s="2">
-        <v>86</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>53</v>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="N13" s="1">
         <v>3</v>
       </c>
+      <c r="O13" s="1"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>29</v>
+      <c r="A14" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="C14" s="1">
+        <v>27</v>
+      </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="2">
-        <v>2013</v>
+      <c r="H14" s="1">
+        <v>77.78</v>
+      </c>
+      <c r="I14" s="1">
+        <v>88.89</v>
+      </c>
+      <c r="J14" s="1">
+        <v>2012</v>
       </c>
       <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="2" t="s">
-        <v>52</v>
+      <c r="L14" s="1">
+        <v>85.19</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="N14" s="1">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="O14" s="1"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>30</v>
+      <c r="A15" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1058,29 +1086,30 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="2">
-        <v>37</v>
-      </c>
-      <c r="I15" s="2">
-        <v>82</v>
-      </c>
-      <c r="J15" s="2">
-        <v>2013</v>
+      <c r="H15" s="1">
+        <v>84</v>
+      </c>
+      <c r="I15" s="1">
+        <v>76</v>
+      </c>
+      <c r="J15" s="1">
+        <v>2012</v>
       </c>
       <c r="K15" s="1"/>
-      <c r="L15" s="2">
-        <v>71.88</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>55</v>
+      <c r="L15" s="1">
+        <v>90</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="N15" s="1">
         <v>3</v>
       </c>
+      <c r="O15" s="1"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>31</v>
+      <c r="A16" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1088,27 +1117,28 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="2">
-        <v>72.5</v>
-      </c>
-      <c r="I16" s="2">
-        <v>90.9</v>
-      </c>
-      <c r="J16" s="2">
-        <v>2013</v>
+      <c r="H16" s="1">
+        <v>94.7</v>
+      </c>
+      <c r="I16" s="1">
+        <v>100</v>
+      </c>
+      <c r="J16" s="1">
+        <v>2012</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="2" t="s">
-        <v>53</v>
+      <c r="M16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="N16" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>27</v>
+        <v>4</v>
+      </c>
+      <c r="O16" s="1"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1116,29 +1146,30 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="2">
-        <v>77.78</v>
-      </c>
-      <c r="I17" s="2">
-        <v>88.89</v>
-      </c>
-      <c r="J17" s="2">
+      <c r="H17" s="1">
+        <v>90.48</v>
+      </c>
+      <c r="I17" s="1">
+        <v>85.71</v>
+      </c>
+      <c r="J17" s="1">
         <v>2012</v>
       </c>
       <c r="K17" s="1"/>
-      <c r="L17" s="2">
-        <v>85.19</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>53</v>
+      <c r="L17" s="1">
+        <v>88.1</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="N17" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>32</v>
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1146,29 +1177,30 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="2">
-        <v>84</v>
-      </c>
-      <c r="I18" s="2">
-        <v>76</v>
-      </c>
-      <c r="J18" s="2">
-        <v>2012</v>
+      <c r="H18" s="1">
+        <v>100</v>
+      </c>
+      <c r="I18" s="1">
+        <v>86.7</v>
+      </c>
+      <c r="J18" s="1">
+        <v>2011</v>
       </c>
       <c r="K18" s="1"/>
-      <c r="L18" s="2">
-        <v>90</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>53</v>
+      <c r="L18" s="1">
+        <v>93.3</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="N18" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>33</v>
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1176,27 +1208,28 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="2">
-        <v>94.7</v>
-      </c>
-      <c r="I19" s="2">
-        <v>100</v>
-      </c>
-      <c r="J19" s="2">
-        <v>2012</v>
+      <c r="H19" s="1">
+        <v>85</v>
+      </c>
+      <c r="I19" s="1">
+        <v>25</v>
+      </c>
+      <c r="J19" s="1">
+        <v>2011</v>
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-      <c r="M19" s="2" t="s">
+      <c r="M19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N19" s="1">
+        <v>2</v>
+      </c>
+      <c r="O19" s="1"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="N19" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1204,23 +1237,28 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="2">
-        <v>2012</v>
+      <c r="H20" s="1">
+        <v>75</v>
+      </c>
+      <c r="I20" s="1">
+        <v>78</v>
+      </c>
+      <c r="J20" s="1">
+        <v>2010</v>
       </c>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="1" t="s">
         <v>54</v>
       </c>
       <c r="N20" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>32</v>
+        <v>3</v>
+      </c>
+      <c r="O20" s="1"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1228,29 +1266,30 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="2">
-        <v>90.48</v>
-      </c>
-      <c r="I21" s="2">
-        <v>85.71</v>
-      </c>
-      <c r="J21" s="2">
-        <v>2012</v>
+      <c r="H21" s="1">
+        <v>99.15</v>
+      </c>
+      <c r="I21" s="1">
+        <v>93.1</v>
+      </c>
+      <c r="J21" s="1">
+        <v>2009</v>
       </c>
       <c r="K21" s="1"/>
-      <c r="L21" s="2">
-        <v>88.1</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>53</v>
+      <c r="L21" s="1">
+        <v>80</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="N21" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>34</v>
+      <c r="O21" s="1"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1258,29 +1297,28 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="2">
-        <v>100</v>
-      </c>
-      <c r="I22" s="2">
-        <v>86.7</v>
-      </c>
-      <c r="J22" s="2">
-        <v>2011</v>
+      <c r="H22" s="1">
+        <v>44</v>
+      </c>
+      <c r="I22" s="1">
+        <v>97</v>
+      </c>
+      <c r="J22" s="1">
+        <v>2008</v>
       </c>
       <c r="K22" s="1"/>
-      <c r="L22" s="2">
-        <v>93.3</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>53</v>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="N22" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>13</v>
+      <c r="O22" s="1"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1288,27 +1326,30 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="2">
-        <v>85</v>
-      </c>
-      <c r="I23" s="2">
-        <v>25</v>
-      </c>
-      <c r="J23" s="2">
-        <v>2011</v>
+      <c r="H23" s="1">
+        <v>60</v>
+      </c>
+      <c r="I23" s="1">
+        <v>100</v>
+      </c>
+      <c r="J23" s="1">
+        <v>2007</v>
       </c>
       <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="2" t="s">
-        <v>53</v>
+      <c r="L23" s="1">
+        <v>94.74</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="N23" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>35</v>
+        <v>4</v>
+      </c>
+      <c r="O23" s="1"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1316,20 +1357,29 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="2">
-        <v>2010</v>
+      <c r="H24" s="1">
+        <v>88.2</v>
+      </c>
+      <c r="I24" s="1">
+        <v>81.2</v>
+      </c>
+      <c r="J24" s="1">
+        <v>2007</v>
       </c>
       <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="N24" s="1"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+      <c r="L24" s="1">
+        <v>80.95</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N24" s="1">
+        <v>3</v>
+      </c>
+      <c r="O24" s="1"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B25" s="1"/>
@@ -1338,27 +1388,30 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="2">
-        <v>75</v>
-      </c>
-      <c r="I25" s="2">
-        <v>78</v>
-      </c>
-      <c r="J25" s="2">
-        <v>2010</v>
+      <c r="H25" s="1">
+        <v>88.2</v>
+      </c>
+      <c r="I25" s="1">
+        <v>81.2</v>
+      </c>
+      <c r="J25" s="1">
+        <v>2003</v>
       </c>
       <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="2" t="s">
-        <v>53</v>
+      <c r="L25" s="1">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="N25" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>36</v>
+      <c r="O25" s="1"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1366,55 +1419,57 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="2">
-        <v>2010</v>
+      <c r="H26" s="1">
+        <v>67</v>
+      </c>
+      <c r="I26" s="1">
+        <v>54</v>
+      </c>
+      <c r="J26" s="1">
+        <v>2001</v>
       </c>
       <c r="K26" s="1"/>
-      <c r="L26" s="2">
-        <v>86.6</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>53</v>
+      <c r="L26" s="1">
+        <v>59</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="N26" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>37</v>
+        <v>2</v>
+      </c>
+      <c r="O26" s="1"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
+      <c r="C27" s="3">
+        <v>58000</v>
+      </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="2">
-        <v>99.15</v>
-      </c>
-      <c r="I27" s="2">
-        <v>93.1</v>
-      </c>
-      <c r="J27" s="2">
-        <v>2009</v>
+      <c r="H27" s="1">
+        <v>90</v>
+      </c>
+      <c r="I27" s="1">
+        <v>88</v>
+      </c>
+      <c r="J27" s="1">
+        <v>1980</v>
       </c>
       <c r="K27" s="1"/>
-      <c r="L27" s="2">
-        <v>80</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="N27" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>38</v>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1422,213 +1477,203 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="2">
-        <v>44</v>
-      </c>
-      <c r="I28" s="2">
-        <v>97</v>
-      </c>
-      <c r="J28" s="2">
+      <c r="H28" s="1">
+        <v>78.31</v>
+      </c>
+      <c r="I28" s="1">
+        <v>75.89</v>
+      </c>
+      <c r="J28" s="1">
         <v>2008</v>
       </c>
       <c r="K28" s="1"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="N28" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>39</v>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
+      <c r="C29" s="3">
+        <v>16409</v>
+      </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="2">
-        <v>60</v>
-      </c>
-      <c r="I29" s="2">
-        <v>100</v>
-      </c>
-      <c r="J29" s="2">
-        <v>2007</v>
+      <c r="H29" s="1">
+        <v>87</v>
+      </c>
+      <c r="I29" s="1">
+        <v>87</v>
+      </c>
+      <c r="J29" s="1">
+        <v>1968</v>
       </c>
       <c r="K29" s="1"/>
-      <c r="L29" s="2">
-        <v>94.74</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="N29" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>40</v>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
+      <c r="C30" s="1">
+        <v>176</v>
+      </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="2">
-        <v>2007</v>
+      <c r="I30" s="1">
+        <v>95</v>
+      </c>
+      <c r="J30" s="1">
+        <v>1964</v>
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="N30" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>41</v>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
+      <c r="C31" s="1">
+        <v>100</v>
+      </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="2">
-        <v>88.2</v>
-      </c>
-      <c r="I31" s="2">
-        <v>81.2</v>
-      </c>
-      <c r="J31" s="2">
-        <v>2007</v>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1">
+        <v>100</v>
+      </c>
+      <c r="J31" s="1">
+        <v>1965</v>
       </c>
       <c r="K31" s="1"/>
-      <c r="L31" s="2">
-        <v>80.95</v>
-      </c>
-      <c r="M31" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="N31" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>42</v>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
+      <c r="C32" s="1">
+        <v>150</v>
+      </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="2">
-        <v>2007</v>
+      <c r="I32" s="1">
+        <v>66</v>
+      </c>
+      <c r="J32" s="1">
+        <v>1965</v>
       </c>
       <c r="K32" s="1"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="N32" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>43</v>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
+      <c r="C33" s="1">
+        <v>4000</v>
+      </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="2">
-        <v>2003</v>
+      <c r="H33" s="1">
+        <v>94</v>
+      </c>
+      <c r="I33" s="1">
+        <v>94</v>
+      </c>
+      <c r="J33" s="1">
+        <v>1967</v>
       </c>
       <c r="K33" s="1"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="N33" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>44</v>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
+      <c r="C34" s="1">
+        <v>154</v>
+      </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
-      <c r="H34" s="2">
-        <v>40</v>
-      </c>
-      <c r="I34" s="2">
-        <v>68.97</v>
-      </c>
-      <c r="J34" s="2">
-        <v>2002</v>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1">
+        <v>98</v>
+      </c>
+      <c r="J34" s="1">
+        <v>1966</v>
       </c>
       <c r="K34" s="1"/>
-      <c r="L34" s="2">
-        <v>61.54</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="N34" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>45</v>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
+      <c r="C35" s="1">
+        <v>100</v>
+      </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="2">
-        <v>2002</v>
+      <c r="I35" s="1">
+        <v>89</v>
+      </c>
+      <c r="J35" s="1">
+        <v>1966</v>
       </c>
       <c r="K35" s="1"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="N35" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>46</v>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1637,363 +1682,735 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="2">
-        <v>2002</v>
+      <c r="I36" s="1">
+        <v>79</v>
+      </c>
+      <c r="J36" s="1">
+        <v>1968</v>
       </c>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
-      <c r="M36" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="N36" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>44</v>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
+      <c r="C37" s="1">
+        <v>1924</v>
+      </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="2">
-        <v>67</v>
-      </c>
-      <c r="I37" s="2">
-        <v>54</v>
-      </c>
-      <c r="J37" s="2">
-        <v>2001</v>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1">
+        <v>75</v>
+      </c>
+      <c r="J37" s="1">
+        <v>1967</v>
       </c>
       <c r="K37" s="1"/>
-      <c r="L37" s="2">
-        <v>59</v>
-      </c>
-      <c r="M37" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="N37" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>44</v>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
+      <c r="C38" s="1">
+        <v>2523</v>
+      </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="2">
-        <v>2001</v>
+      <c r="I38" s="1">
+        <v>25</v>
+      </c>
+      <c r="J38" s="1">
+        <v>1968</v>
       </c>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
-      <c r="M38" s="2" t="s">
-        <v>53</v>
-      </c>
+      <c r="M38" s="1"/>
       <c r="N38" s="1"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>12</v>
+      <c r="O38" s="1"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
+      <c r="C39" s="1">
+        <v>2696</v>
+      </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="2">
-        <v>1998</v>
+      <c r="I39" s="1">
+        <v>72</v>
+      </c>
+      <c r="J39" s="1">
+        <v>1968</v>
       </c>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
-      <c r="M39" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N39" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>47</v>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
+      <c r="C40" s="1">
+        <v>4413</v>
+      </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="2">
-        <v>1978</v>
+      <c r="I40" s="1">
+        <v>87</v>
+      </c>
+      <c r="J40" s="1">
+        <v>1964</v>
       </c>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
-      <c r="M40" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="N40" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>48</v>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
+      <c r="C41" s="1">
+        <v>173</v>
+      </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="2">
-        <v>1984</v>
+      <c r="I41" s="1">
+        <v>75</v>
+      </c>
+      <c r="J41" s="1">
+        <v>1968</v>
       </c>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
-      <c r="M41" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N41" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>60</v>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="B42" s="1"/>
-      <c r="C42" s="5">
-        <v>85000</v>
+      <c r="C42" s="1">
+        <v>3518</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1">
-        <v>90</v>
+        <v>79.8</v>
       </c>
       <c r="I42" s="1">
-        <v>88</v>
-      </c>
-      <c r="J42" s="1"/>
+        <v>72.099999999999994</v>
+      </c>
+      <c r="J42" s="1">
+        <v>1969</v>
+      </c>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
-        <v>37</v>
+      <c r="O42" s="1"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
+      <c r="C43" s="1">
+        <v>16000</v>
+      </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
-      <c r="H43" s="1">
-        <v>78.31</v>
-      </c>
+      <c r="H43" s="1"/>
       <c r="I43" s="1">
-        <v>75.89</v>
-      </c>
-      <c r="J43" s="3">
-        <v>2008</v>
+        <v>75</v>
+      </c>
+      <c r="J43" s="1">
+        <v>1978</v>
       </c>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
+      <c r="O43" s="1"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1">
+        <v>100</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1">
+        <v>83</v>
+      </c>
+      <c r="J44" s="1">
+        <v>2000</v>
+      </c>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1">
+        <v>87</v>
+      </c>
+      <c r="I45" s="1">
+        <v>85</v>
+      </c>
+      <c r="J45" s="1">
+        <v>1983</v>
+      </c>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1">
+        <v>655</v>
+      </c>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1">
+        <v>82</v>
+      </c>
+      <c r="J46" s="1">
+        <v>1981</v>
+      </c>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1">
+        <v>8767</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1">
+        <v>76</v>
+      </c>
+      <c r="J47" s="1">
+        <v>1984</v>
+      </c>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="J44" s="2">
-        <v>1968</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
+      <c r="B48" s="1"/>
+      <c r="C48" s="1">
+        <v>2702</v>
+      </c>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1">
+        <v>68</v>
+      </c>
+      <c r="J48" s="1">
+        <v>1984</v>
+      </c>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C45">
-        <v>176</v>
-      </c>
-      <c r="I45">
-        <v>95</v>
-      </c>
-      <c r="J45" s="2">
-        <v>1964</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
+      <c r="B49" s="1"/>
+      <c r="C49" s="5">
+        <v>372</v>
+      </c>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="5">
+        <v>67.8</v>
+      </c>
+      <c r="I49" s="5">
+        <v>87.8</v>
+      </c>
+      <c r="J49" s="1">
+        <v>1986</v>
+      </c>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C46">
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1">
+        <v>25</v>
+      </c>
+      <c r="I50" s="1">
+        <v>95.8</v>
+      </c>
+      <c r="J50" s="1">
+        <v>2011</v>
+      </c>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1">
+        <v>97.7</v>
+      </c>
+      <c r="I51" s="1">
+        <v>66.7</v>
+      </c>
+      <c r="J51" s="1">
+        <v>2010</v>
+      </c>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1">
+        <v>99</v>
+      </c>
+      <c r="I52" s="1">
         <v>100</v>
       </c>
-      <c r="I46">
+      <c r="J52" s="1">
+        <v>2016</v>
+      </c>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1">
+        <v>94.82</v>
+      </c>
+      <c r="I53" s="1">
+        <v>80.64</v>
+      </c>
+      <c r="J53" s="1">
+        <v>2012</v>
+      </c>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1">
+        <v>86.5</v>
+      </c>
+      <c r="I54" s="1">
+        <v>85.7</v>
+      </c>
+      <c r="J54" s="1">
+        <v>2014</v>
+      </c>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1">
+        <v>92.31</v>
+      </c>
+      <c r="J55" s="1">
+        <v>2016</v>
+      </c>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1">
+        <v>57.8</v>
+      </c>
+      <c r="I56" s="1">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="J56" s="1">
+        <v>2016</v>
+      </c>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A57" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1">
+        <v>97</v>
+      </c>
+      <c r="J57" s="1">
+        <v>2016</v>
+      </c>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A58" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1">
+        <v>98</v>
+      </c>
+      <c r="J58" s="1">
+        <v>2015</v>
+      </c>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A59" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1">
+        <v>150</v>
+      </c>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1">
+        <v>89.44</v>
+      </c>
+      <c r="I59" s="1">
+        <v>83.1</v>
+      </c>
+      <c r="J59" s="1">
+        <v>2015</v>
+      </c>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A60" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1">
+        <v>400</v>
+      </c>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1">
+        <v>98</v>
+      </c>
+      <c r="I60" s="1">
         <v>100</v>
       </c>
-      <c r="J46">
-        <v>1965</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C47">
-        <v>150</v>
-      </c>
-      <c r="I47">
-        <v>66</v>
-      </c>
-      <c r="J47">
-        <v>1965</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C48">
-        <v>4000</v>
-      </c>
-      <c r="I48">
-        <v>94</v>
-      </c>
-      <c r="J48">
-        <v>1967</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C49">
-        <v>154</v>
-      </c>
-      <c r="I49">
-        <v>98</v>
-      </c>
-      <c r="J49">
-        <v>1966</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C50">
+      <c r="J60" s="1">
+        <v>2014</v>
+      </c>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A61" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1">
+        <v>1008</v>
+      </c>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1">
+        <v>97.6</v>
+      </c>
+      <c r="I61" s="1">
+        <v>99.17</v>
+      </c>
+      <c r="J61" s="1">
+        <v>2014</v>
+      </c>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1">
+        <v>92</v>
+      </c>
+      <c r="I62" s="1">
+        <v>88</v>
+      </c>
+      <c r="J62" s="1">
+        <v>2012</v>
+      </c>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1">
+        <v>90</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N62" s="1">
+        <v>3</v>
+      </c>
+      <c r="O62" s="1"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1">
+        <v>22</v>
+      </c>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1">
+        <v>81.819999999999993</v>
+      </c>
+      <c r="I63" s="1">
         <v>100</v>
       </c>
-      <c r="I50">
-        <v>89</v>
-      </c>
-      <c r="J50">
-        <v>1966</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I51">
-        <v>79</v>
-      </c>
-      <c r="J51">
-        <v>1968</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C52">
-        <v>1924</v>
-      </c>
-      <c r="I52">
-        <v>75</v>
-      </c>
-      <c r="J52">
-        <v>1967</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C53">
-        <v>2523</v>
-      </c>
-      <c r="I53">
-        <v>25</v>
-      </c>
-      <c r="J53">
-        <v>1968</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C54">
-        <v>2696</v>
-      </c>
-      <c r="I54">
-        <v>72</v>
-      </c>
-      <c r="J54">
-        <v>1968</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C55">
-        <v>4413</v>
-      </c>
-      <c r="I55">
-        <v>87</v>
-      </c>
-      <c r="J55">
-        <v>1964</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C56">
-        <v>173</v>
-      </c>
-      <c r="I56">
-        <v>75</v>
-      </c>
-      <c r="J56">
-        <v>1968</v>
-      </c>
+      <c r="J63" s="1">
+        <v>2014</v>
+      </c>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N63" s="1">
+        <v>3</v>
+      </c>
+      <c r="O63" s="1"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B64" s="1"/>
+      <c r="C64" s="6">
+        <v>10238</v>
+      </c>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="5">
+        <v>61</v>
+      </c>
+      <c r="I64" s="5">
+        <v>74</v>
+      </c>
+      <c r="J64" s="5">
+        <v>1990</v>
+      </c>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
